--- a/10/10kadai.xlsx
+++ b/10/10kadai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\higashi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LetsEngineer\curriculum\PHPjob\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557A618-3368-4619-AE5F-CB037DBF48DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F46C89C-8891-44AC-876E-BB6299741C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89AB5E39-05CA-45A2-A277-D50D648C8C04}"/>
   </bookViews>
@@ -1583,16 +1583,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>５桁の数字（例：00001）</t>
-    <rPh sb="1" eb="2">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(FK)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1978,13 +1968,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>学習ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザID</t>
   </si>
   <si>
@@ -2014,13 +1997,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>進捗ID</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>例：01234</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -2073,16 +2049,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開始時刻ID</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NULL</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3205,6 +3171,49 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始時刻ID（レコード識別用）</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進捗ID（レコード識別用）</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学習ID（レコード識別用）</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>５桁の数字文字列（例：00001）</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3455,7 +3464,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3464,14 +3548,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3491,42 +3581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3536,65 +3590,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3654,7 +3663,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$3:$I$6" spid="_x0000_s1026"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$3:$I$6" spid="_x0000_s1034"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4691,7 +4700,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$8:$I$11" spid="_x0000_s2050"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$8:$I$11" spid="_x0000_s2058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5495,7 +5504,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$13:$I$16" spid="_x0000_s3074"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$13:$I$16" spid="_x0000_s3082"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7197,7 +7206,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$19:$G$21" spid="_x0000_s4105"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$19:$G$21" spid="_x0000_s4169"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7262,7 +7271,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$23:$G$25" spid="_x0000_s4106"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$23:$G$25" spid="_x0000_s4170"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7327,7 +7336,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$27:$G$29" spid="_x0000_s4107"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$27:$G$29" spid="_x0000_s4171"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7392,7 +7401,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$31:$G$33" spid="_x0000_s4108"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$31:$G$33" spid="_x0000_s4172"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7457,7 +7466,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$39:$G$41" spid="_x0000_s4109"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$39:$G$41" spid="_x0000_s4173"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7522,7 +7531,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$43:$G$45" spid="_x0000_s4110"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$43:$G$45" spid="_x0000_s4174"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7587,7 +7596,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$47:$G$49" spid="_x0000_s4111"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$47:$G$49" spid="_x0000_s4175"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7652,7 +7661,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$35:$G$37" spid="_x0000_s4112"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$35:$G$37" spid="_x0000_s4176"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8226,7 +8235,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$7:$L$16" spid="_x0000_s5130"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$7:$L$16" spid="_x0000_s5202"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8366,7 +8375,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$23:$L$28" spid="_x0000_s5131"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$23:$L$28" spid="_x0000_s5203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8431,7 +8440,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$36:$L$42" spid="_x0000_s5132"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$36:$L$42" spid="_x0000_s5204"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8496,7 +8505,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$49:$L$56" spid="_x0000_s5133"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$49:$L$56" spid="_x0000_s5205"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8561,7 +8570,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$63:$L$71" spid="_x0000_s5134"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$63:$L$71" spid="_x0000_s5206"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8626,7 +8635,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$78:$L$84" spid="_x0000_s5135"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$78:$L$84" spid="_x0000_s5207"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8691,7 +8700,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$91:$L$99" spid="_x0000_s5136"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$91:$L$99" spid="_x0000_s5208"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8756,7 +8765,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="テーブル定義書!$K$106:$L$112" spid="_x0000_s5137"/>
+                  <a14:cameraTool cellRange="テーブル定義書!$K$106:$L$112" spid="_x0000_s5209"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10831,7 +10840,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$52:$G$55" spid="_x0000_s5138"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$52:$G$55" spid="_x0000_s5210"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10901,7 +10910,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$58:$G$61" spid="_x0000_s6146"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$58:$G$61" spid="_x0000_s6154"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12265,7 +12274,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$63:$G$66" spid="_x0000_s7170"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$63:$G$66" spid="_x0000_s7178"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14060,7 +14069,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$68:$G$71" spid="_x0000_s8194"/>
+                  <a14:cameraTool cellRange="'目次（ヘッダ）'!$B$68:$G$71" spid="_x0000_s8202"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -15997,226 +16006,226 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>44893</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>0.1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>44893</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0.1</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>44893</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>0.1</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
@@ -16224,412 +16233,412 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <v>44893</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>44893</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>44893</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <v>44893</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="I33" s="17"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="4">
         <v>44893</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="4">
         <v>44893</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="4">
         <v>44893</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="14" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="4">
         <v>44893</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="51" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
@@ -16637,60 +16646,60 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="4">
         <v>44893</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="21"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="21" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="21" t="s">
+      <c r="E54" s="6"/>
+      <c r="F54" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
@@ -16698,190 +16707,202 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="4">
         <v>44893</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="23" t="s">
+      <c r="E60" s="6"/>
+      <c r="F60" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.4">
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="4">
         <v>44893</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="23" t="s">
+      <c r="E65" s="6"/>
+      <c r="F65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
     </row>
     <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="4">
         <v>44893</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="23" t="s">
+      <c r="E70" s="6"/>
+      <c r="F70" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
     </row>
     <row r="73" spans="2:7" ht="33" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="B68:G68"/>
@@ -16892,18 +16913,6 @@
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16918,7 +16927,7 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -16936,165 +16945,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24"/>
+      <c r="A1" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15">
+      <c r="A31" s="6">
         <v>1</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="6">
         <v>5</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="15">
+      <c r="A32" s="6">
         <v>2</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="6">
         <v>128</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="15">
+      <c r="A33" s="6">
         <v>3</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="6">
         <v>16</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="28"/>
+      <c r="I33" s="43"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="15">
+      <c r="A34" s="6">
         <v>4</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="25"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="15">
+      <c r="A35" s="6">
         <v>5</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
         <v>128</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17133,264 +17142,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24"/>
+      <c r="A1" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="15">
+      <c r="A39" s="6">
         <v>1</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="15" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="15">
+      <c r="A40" s="6">
         <v>2</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="15">
+      <c r="A41" s="6">
         <v>3</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="6">
         <v>16</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="15">
+      <c r="A42" s="6">
         <v>4</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="6">
         <v>64</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="15">
+      <c r="A43" s="6">
         <v>5</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="6">
         <v>64</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="15">
+      <c r="A44" s="6">
         <v>6</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="6">
         <v>64</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="15">
+      <c r="A45" s="6">
         <v>7</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="6">
         <v>128</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="15">
+      <c r="A46" s="6">
         <v>8</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="6">
         <v>32</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -17428,295 +17437,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24"/>
+      <c r="A1" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I16" s="29"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="15">
+      <c r="A41" s="6">
         <v>1</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15">
+      <c r="A42" s="6">
         <v>2</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="6">
         <v>128</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="15">
+      <c r="A43" s="6">
         <v>3</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="6">
         <v>32</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="15">
+      <c r="A44" s="6">
         <v>4</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="6">
         <v>128</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="I44" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="15">
+      <c r="A45" s="6">
         <v>5</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="6">
         <v>128</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="30"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="44"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="15">
+      <c r="A46" s="6">
         <v>6</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="6">
         <v>128</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="15">
+      <c r="A47" s="6">
         <v>7</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="6">
         <v>128</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="30"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="44"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="15">
+      <c r="A48" s="6">
         <v>8</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="31"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="45"/>
     </row>
     <row r="49" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="15">
+      <c r="A49" s="6">
         <v>9</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I49" s="41" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="15">
+      <c r="A50" s="6">
         <v>10</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="31"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17740,8 +17749,8 @@
   </sheetPr>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A69" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17758,1681 +17767,1681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="33" t="str">
+      <c r="K7" s="47" t="str">
         <f>'目次（ヘッダ）'!C20</f>
         <v>ユーザ情報</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="34" t="str">
+      <c r="K8" s="14" t="str">
         <f>テーブル定義書!C8</f>
         <v>ユーザID</v>
       </c>
-      <c r="L8" s="34"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="35" t="str">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="15" t="str">
         <f>テーブル定義書!C9</f>
         <v>企業コード</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="36" t="str">
+      <c r="K10" s="16" t="str">
         <f>テーブル定義書!C10</f>
         <v>メールアドレス</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K11" s="36" t="str">
+      <c r="K11" s="16" t="str">
         <f>テーブル定義書!C11</f>
         <v>パスワード</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="36" t="str">
+      <c r="K12" s="16" t="str">
         <f>テーブル定義書!C12</f>
         <v>ユーザネーム</v>
       </c>
-      <c r="L12" s="36"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="36" t="str">
+      <c r="K13" s="16" t="str">
         <f>テーブル定義書!C13</f>
         <v>メール配信許可</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="36" t="str">
+      <c r="K14" s="16" t="str">
         <f>テーブル定義書!C14</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L14" s="36"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="K15" s="36" t="str">
+      <c r="I15" s="6"/>
+      <c r="K15" s="16" t="str">
         <f>テーブル定義書!C15</f>
         <v>作成日時</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="K16" s="36" t="str">
+      <c r="I16" s="6"/>
+      <c r="K16" s="16" t="str">
         <f>テーブル定義書!C16</f>
         <v>更新日時</v>
       </c>
-      <c r="L16" s="36"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="22" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="33" t="str">
+      <c r="K23" s="47" t="str">
         <f>'目次（ヘッダ）'!C24</f>
         <v>企業情報</v>
       </c>
-      <c r="L23" s="33"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" s="34" t="str">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K24" s="14" t="str">
         <f>テーブル定義書!C24</f>
         <v>企業コード</v>
       </c>
-      <c r="L24" s="34"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="36" t="str">
+      <c r="K25" s="16" t="str">
         <f>テーブル定義書!C25</f>
         <v>企業名</v>
       </c>
-      <c r="L25" s="36"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="36" t="str">
+      <c r="K26" s="16" t="str">
         <f>テーブル定義書!C26</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L26" s="36"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="K27" s="36" t="str">
+      <c r="I27" s="6"/>
+      <c r="K27" s="16" t="str">
         <f>テーブル定義書!C27</f>
         <v>作成日時</v>
       </c>
-      <c r="L27" s="36"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="K28" s="36" t="str">
+      <c r="I28" s="6"/>
+      <c r="K28" s="16" t="str">
         <f>テーブル定義書!C28</f>
         <v>更新日時</v>
       </c>
-      <c r="L28" s="36"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="37" t="str">
+      <c r="K36" s="48" t="str">
         <f>'目次（ヘッダ）'!C28</f>
         <v>言語情報</v>
       </c>
-      <c r="L36" s="37"/>
+      <c r="L36" s="48"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="K37" s="38" t="str">
+      <c r="K37" s="17" t="str">
         <f>テーブル定義書!C37</f>
         <v>言語コード</v>
       </c>
-      <c r="L37" s="38"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="K38" s="39" t="str">
+      <c r="K38" s="18" t="str">
         <f>テーブル定義書!C38</f>
         <v>言語名</v>
       </c>
-      <c r="L38" s="39"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39" s="39" t="str">
+      <c r="K39" s="18" t="str">
         <f>テーブル定義書!C39</f>
         <v>説明文</v>
       </c>
-      <c r="L39" s="39"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="D40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="39" t="str">
+      <c r="K40" s="18" t="str">
         <f>テーブル定義書!C40</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L40" s="39"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="D41" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="K41" s="39" t="str">
+      <c r="I41" s="6"/>
+      <c r="K41" s="18" t="str">
         <f>テーブル定義書!C41</f>
         <v>作成日時</v>
       </c>
-      <c r="L41" s="39"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="K42" s="39" t="str">
+      <c r="I42" s="6"/>
+      <c r="K42" s="18" t="str">
         <f>テーブル定義書!C42</f>
         <v>更新日時</v>
       </c>
-      <c r="L42" s="39"/>
+      <c r="L42" s="18"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K49" s="37" t="str">
+      <c r="K49" s="48" t="str">
         <f>'目次（ヘッダ）'!C32</f>
         <v>章情報</v>
       </c>
-      <c r="L49" s="37"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15" t="s">
+      <c r="H50" s="6"/>
+      <c r="I50" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K50" s="40" t="str">
+      <c r="K50" s="19" t="str">
         <f>テーブル定義書!C50</f>
         <v>章ID</v>
       </c>
-      <c r="L50" s="40"/>
+      <c r="L50" s="19"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B51" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" s="40" t="str">
+      <c r="K51" s="19" t="str">
         <f>テーブル定義書!C51</f>
         <v>言語コード</v>
       </c>
-      <c r="L51" s="40" t="s">
+      <c r="L51" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B52" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="K52" s="41" t="str">
+      <c r="K52" s="20" t="str">
         <f>テーブル定義書!C52</f>
         <v>表示順番</v>
       </c>
-      <c r="L52" s="41"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="K53" s="39" t="str">
+      <c r="K53" s="18" t="str">
         <f>テーブル定義書!C53</f>
         <v>章タイトル</v>
       </c>
-      <c r="L53" s="39"/>
+      <c r="L53" s="18"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="D54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15">
-        <v>0</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K54" s="39" t="str">
+      <c r="K54" s="18" t="str">
         <f>テーブル定義書!C54</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L54" s="39"/>
+      <c r="L54" s="18"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="D55" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="E55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I55" s="15"/>
-      <c r="K55" s="39" t="str">
+      <c r="I55" s="6"/>
+      <c r="K55" s="18" t="str">
         <f>テーブル定義書!C55</f>
         <v>作成日時</v>
       </c>
-      <c r="L55" s="39"/>
+      <c r="L55" s="18"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I56" s="15"/>
-      <c r="K56" s="39" t="str">
+      <c r="I56" s="6"/>
+      <c r="K56" s="18" t="str">
         <f>テーブル定義書!C56</f>
         <v>更新日時</v>
       </c>
-      <c r="L56" s="39"/>
+      <c r="L56" s="18"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="32" t="s">
+      <c r="G63" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H63" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I63" s="32" t="s">
+      <c r="I63" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K63" s="37" t="str">
+      <c r="K63" s="48" t="str">
         <f>'目次（ヘッダ）'!C36</f>
         <v>項目情報</v>
       </c>
-      <c r="L63" s="37"/>
+      <c r="L63" s="48"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15" t="s">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K64" s="40" t="str">
+      <c r="K64" s="19" t="str">
         <f>テーブル定義書!C64</f>
         <v>項目ID</v>
       </c>
-      <c r="L64" s="40"/>
+      <c r="L64" s="19"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="K65" s="40" t="str">
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K65" s="19" t="str">
         <f>テーブル定義書!C65</f>
         <v>章ID</v>
       </c>
-      <c r="L65" s="40" t="s">
-        <v>157</v>
+      <c r="L65" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K66" s="41" t="str">
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K66" s="20" t="str">
         <f>テーブル定義書!C66</f>
         <v>表示順番</v>
       </c>
-      <c r="L66" s="41"/>
+      <c r="L66" s="20"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="K67" s="39" t="str">
+      <c r="K67" s="18" t="str">
         <f>テーブル定義書!C67</f>
         <v>項目タイトル</v>
       </c>
-      <c r="L67" s="39"/>
+      <c r="L67" s="18"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="D68" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="K68" s="39" t="str">
+      <c r="K68" s="18" t="str">
         <f>テーブル定義書!C68</f>
         <v>課題提出の有無</v>
       </c>
-      <c r="L68" s="39"/>
+      <c r="L68" s="18"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="D69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15">
-        <v>0</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K69" s="39" t="str">
+      <c r="K69" s="18" t="str">
         <f>テーブル定義書!C69</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L69" s="39"/>
+      <c r="L69" s="18"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="D70" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="E70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E70" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I70" s="15"/>
-      <c r="K70" s="39" t="str">
+      <c r="I70" s="6"/>
+      <c r="K70" s="18" t="str">
         <f>テーブル定義書!C70</f>
         <v>作成日時</v>
       </c>
-      <c r="L70" s="39"/>
+      <c r="L70" s="18"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I71" s="15"/>
-      <c r="K71" s="39" t="str">
+      <c r="I71" s="6"/>
+      <c r="K71" s="18" t="str">
         <f>テーブル定義書!C71</f>
         <v>更新日時</v>
       </c>
-      <c r="L71" s="39"/>
+      <c r="L71" s="18"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F78" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="G78" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="H78" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I78" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K78" s="42" t="str">
+      <c r="K78" s="46" t="str">
         <f>'目次（ヘッダ）'!C40</f>
         <v>学習情報</v>
       </c>
-      <c r="L78" s="42"/>
+      <c r="L78" s="46"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K79" s="21" t="str">
+        <f>テーブル定義書!C79</f>
+        <v>学習ID（レコード識別用）</v>
+      </c>
+      <c r="L79" s="22"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D79" s="15" t="s">
+      <c r="D80" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E80" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G79" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K79" s="43" t="str">
-        <f>テーブル定義書!C79</f>
-        <v>学習ID</v>
-      </c>
-      <c r="L79" s="44"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B80" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="K80" s="44" t="str">
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="K80" s="22" t="str">
         <f>テーブル定義書!C80</f>
         <v>ユーザID</v>
       </c>
-      <c r="L80" s="44" t="s">
-        <v>157</v>
+      <c r="L80" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15" t="s">
+      <c r="F81" s="6"/>
+      <c r="G81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="K81" s="45" t="str">
+      <c r="H81" s="6"/>
+      <c r="I81" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81" s="23" t="str">
         <f>テーブル定義書!C81</f>
         <v>言語コード</v>
       </c>
-      <c r="L81" s="45" t="s">
-        <v>157</v>
+      <c r="L81" s="23" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="D82" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6">
+        <v>0</v>
+      </c>
+      <c r="I82" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15">
-        <v>0</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K82" s="46" t="str">
+      <c r="K82" s="24" t="str">
         <f>テーブル定義書!C82</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L82" s="46"/>
+      <c r="L82" s="24"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="D83" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="E83" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I83" s="15"/>
-      <c r="K83" s="46" t="str">
+      <c r="I83" s="6"/>
+      <c r="K83" s="24" t="str">
         <f>テーブル定義書!C83</f>
         <v>作成日時</v>
       </c>
-      <c r="L83" s="46"/>
+      <c r="L83" s="24"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I84" s="15"/>
-      <c r="K84" s="46" t="str">
+      <c r="I84" s="6"/>
+      <c r="K84" s="24" t="str">
         <f>テーブル定義書!C84</f>
         <v>更新日時</v>
       </c>
-      <c r="L84" s="46"/>
+      <c r="L84" s="24"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E91" s="32" t="s">
+      <c r="E91" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F91" s="32" t="s">
+      <c r="F91" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G91" s="32" t="s">
+      <c r="G91" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H91" s="32" t="s">
+      <c r="H91" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I91" s="32" t="s">
+      <c r="I91" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K91" s="42" t="str">
+      <c r="K91" s="46" t="str">
         <f>'目次（ヘッダ）'!C44</f>
         <v>進捗情報</v>
       </c>
-      <c r="L91" s="42"/>
+      <c r="L91" s="46"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B92" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="15" t="s">
+      <c r="B92" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15" t="s">
+      <c r="H92" s="6"/>
+      <c r="I92" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K92" s="43" t="str">
+      <c r="K92" s="21" t="str">
         <f>テーブル定義書!C92</f>
-        <v>進捗ID</v>
-      </c>
-      <c r="L92" s="44"/>
+        <v>進捗ID（レコード識別用）</v>
+      </c>
+      <c r="L92" s="22"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="15" t="s">
+      <c r="C93" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15" t="s">
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K93" s="44" t="str">
+      <c r="H93" s="6"/>
+      <c r="I93" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K93" s="22" t="str">
         <f>テーブル定義書!C93</f>
         <v>ユーザID</v>
       </c>
-      <c r="L93" s="44" t="s">
-        <v>157</v>
+      <c r="L93" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15" t="s">
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="K94" s="45" t="str">
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="K94" s="23" t="str">
         <f>テーブル定義書!C94</f>
         <v>項目ID</v>
       </c>
-      <c r="L94" s="45" t="s">
-        <v>157</v>
+      <c r="L94" s="23" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B95" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D95" s="15" t="s">
+      <c r="B95" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K95" s="46" t="str">
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K95" s="24" t="str">
         <f>テーブル定義書!C95</f>
         <v>学習ステータス</v>
       </c>
-      <c r="L95" s="46"/>
+      <c r="L95" s="24"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B96" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D96" s="15" t="s">
+      <c r="B96" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="K96" s="46" t="str">
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K96" s="24" t="str">
         <f>テーブル定義書!C96</f>
         <v>返信フラグ</v>
       </c>
-      <c r="L96" s="46"/>
+      <c r="L96" s="24"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="D97" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6">
+        <v>0</v>
+      </c>
+      <c r="I97" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15">
-        <v>0</v>
-      </c>
-      <c r="I97" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K97" s="46" t="str">
+      <c r="K97" s="24" t="str">
         <f>テーブル定義書!C97</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L97" s="46"/>
+      <c r="L97" s="24"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="D98" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="E98" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E98" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I98" s="15"/>
-      <c r="K98" s="46" t="str">
+      <c r="I98" s="6"/>
+      <c r="K98" s="24" t="str">
         <f>テーブル定義書!C98</f>
         <v>作成日時</v>
       </c>
-      <c r="L98" s="46"/>
+      <c r="L98" s="24"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E99" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I99" s="15"/>
-      <c r="K99" s="46" t="str">
+      <c r="I99" s="6"/>
+      <c r="K99" s="24" t="str">
         <f>テーブル定義書!C99</f>
         <v>更新日時</v>
       </c>
-      <c r="L99" s="46"/>
+      <c r="L99" s="24"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D106" s="32" t="s">
+      <c r="D106" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E106" s="32" t="s">
+      <c r="E106" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F106" s="32" t="s">
+      <c r="F106" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G106" s="32" t="s">
+      <c r="G106" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H106" s="32" t="s">
+      <c r="H106" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I106" s="32" t="s">
+      <c r="I106" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K106" s="42" t="str">
+      <c r="K106" s="46" t="str">
         <f>'目次（ヘッダ）'!C48</f>
         <v>開始時刻情報</v>
       </c>
-      <c r="L106" s="42"/>
+      <c r="L106" s="46"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B107" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D107" s="15" t="s">
+      <c r="B107" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G107" s="15" t="s">
+      <c r="G107" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15" t="s">
+      <c r="H107" s="6"/>
+      <c r="I107" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K107" s="46" t="str">
+      <c r="K107" s="24" t="str">
         <f>テーブル定義書!C107</f>
-        <v>開始時刻ID</v>
-      </c>
-      <c r="L107" s="46"/>
+        <v>開始時刻ID（レコード識別用）</v>
+      </c>
+      <c r="L107" s="24"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15" t="s">
+      <c r="C108" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K108" s="45" t="str">
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K108" s="23" t="str">
         <f>テーブル定義書!C108</f>
         <v>ユーザID</v>
       </c>
-      <c r="L108" s="45" t="s">
-        <v>157</v>
+      <c r="L108" s="23" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B109" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C109" s="15" t="s">
+      <c r="B109" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E109" s="15" t="s">
+      <c r="D109" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="I109" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K109" s="46" t="str">
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K109" s="24" t="str">
         <f>テーブル定義書!C109</f>
         <v>開始時刻</v>
       </c>
-      <c r="L109" s="46"/>
+      <c r="L109" s="24"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="D110" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6">
+        <v>0</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D110" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15">
-        <v>0</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K110" s="46" t="str">
+      <c r="K110" s="24" t="str">
         <f>テーブル定義書!C110</f>
         <v>削除フラグ</v>
       </c>
-      <c r="L110" s="46"/>
+      <c r="L110" s="24"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="D111" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="E111" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E111" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I111" s="15"/>
-      <c r="K111" s="46" t="str">
+      <c r="I111" s="6"/>
+      <c r="K111" s="24" t="str">
         <f>テーブル定義書!C111</f>
         <v>作成日時</v>
       </c>
-      <c r="L111" s="46"/>
+      <c r="L111" s="24"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C112" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D112" s="15" t="s">
+      <c r="D112" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E112" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I112" s="15"/>
-      <c r="K112" s="46" t="str">
+      <c r="I112" s="6"/>
+      <c r="K112" s="24" t="str">
         <f>テーブル定義書!C112</f>
         <v>更新日時</v>
       </c>
-      <c r="L112" s="46"/>
+      <c r="L112" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19460,7 +19469,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -19503,178 +19512,178 @@
   <sheetData>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D10" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>229</v>
+      <c r="D10" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>158</v>
+      <c r="E12" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>230</v>
+      <c r="E13" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D19" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D21" s="25"/>
+      <c r="E21" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="32" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D22" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D23" s="25"/>
+      <c r="E23" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D20" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D21" s="47"/>
-      <c r="E21" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D22" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D23" s="47"/>
-      <c r="E23" s="15" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>238</v>
+      <c r="E24" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D25" s="47"/>
-      <c r="E25" s="15" t="s">
-        <v>240</v>
+      <c r="D25" s="25"/>
+      <c r="E25" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D32" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>246</v>
+      <c r="D32" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D33" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D34" s="47"/>
-      <c r="E34" s="15" t="s">
-        <v>158</v>
+      <c r="D34" s="25"/>
+      <c r="E34" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D35" s="47"/>
-      <c r="E35" s="15" t="s">
-        <v>230</v>
+      <c r="D35" s="25"/>
+      <c r="E35" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D36" s="47"/>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -19707,405 +19716,405 @@
   <sheetData>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D10" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>229</v>
+      <c r="D10" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D11" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>237</v>
+      <c r="D17" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D18" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>238</v>
+      <c r="D18" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D24" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>246</v>
+      <c r="D24" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D25" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D30" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>246</v>
+      <c r="D30" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D32" s="47"/>
-      <c r="E32" s="15" t="s">
-        <v>225</v>
+      <c r="D32" s="25"/>
+      <c r="E32" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D43" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D44" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D45" s="25"/>
+      <c r="E45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D43" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D44" s="47" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D46" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E46" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D47" s="25"/>
+      <c r="E47" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D48" s="25"/>
+      <c r="E48" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D49" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D45" s="47"/>
-      <c r="E45" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" t="s">
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D50" s="25"/>
+      <c r="E50" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" t="s">
         <v>264</v>
       </c>
-      <c r="G45" t="s">
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="D51" s="25"/>
+      <c r="E51" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D46" s="47" t="s">
+      <c r="F51" t="s">
         <v>266</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D47" s="47"/>
-      <c r="E47" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D48" s="47"/>
-      <c r="E48" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D49" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D50" s="47"/>
-      <c r="E50" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D51" s="47"/>
-      <c r="E51" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F51" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D60" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D61" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D67" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D69" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D72" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D73" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D74" s="25"/>
+      <c r="E74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D75" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D72" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D73" s="47" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D76" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" t="s">
         <v>287</v>
       </c>
-      <c r="E73" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D74" s="47"/>
-      <c r="E74" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F74" t="s">
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D77" s="25"/>
+      <c r="E77" s="6"/>
+      <c r="F77" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D75" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D76" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D77" s="47"/>
-      <c r="E77" s="15"/>
-      <c r="F77" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -20139,273 +20148,273 @@
   <sheetData>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D10" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>229</v>
+      <c r="D10" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D11" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D12" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="25" t="s">
         <v>180</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>237</v>
+      <c r="D19" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D20" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>238</v>
+      <c r="D20" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D21" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>238</v>
+      <c r="D21" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D27" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>246</v>
+      <c r="D27" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D28" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D29" s="47"/>
-      <c r="E29" s="15" t="s">
-        <v>180</v>
+      <c r="D29" s="25"/>
+      <c r="E29" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D34" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>246</v>
+      <c r="D34" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D35" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D36" s="47"/>
-      <c r="E36" s="15" t="s">
-        <v>225</v>
+      <c r="D36" s="25"/>
+      <c r="E36" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D41" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>246</v>
+      <c r="D41" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D42" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D43" s="47"/>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" t="s">
         <v>199</v>
       </c>
-      <c r="F43" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="D44" s="47"/>
-      <c r="E44" s="15" t="s">
-        <v>269</v>
+      <c r="D44" s="25"/>
+      <c r="E44" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="F44" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D49" s="48" t="s">
-        <v>303</v>
+      <c r="D49" s="26" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
